--- a/SCH-STH/Impact assessments/Tanzania/2024/tz_sch_sth_impact_202405_2_child.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/2024/tz_sch_sth_impact_202405_2_child.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C70555-CADA-4DD0-970B-C23962C40B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E011E0E-ED8F-4880-AD9E-1E85DC270CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -545,9 +545,6 @@
     <t>Namba hii ya mtoto tayari ipo. Tafadhali hariri nambari ya mfuatano kutoka kwa swali lililotangulia</t>
   </si>
   <si>
-    <t>tz_202401_4</t>
-  </si>
-  <si>
     <t>Chagua kata</t>
   </si>
   <si>
@@ -626,10 +623,13 @@
     <t>Je katika kipindi cha wiki iliyopita, ulienda kufanya uvuvi katika mito, madimbwi au chemchem za maji zilizo karibu na shuleni au nyumbani?</t>
   </si>
   <si>
-    <t>(2024 Jan) - 2. SCH/STH – Participant V4.1</t>
-  </si>
-  <si>
-    <t>tz_sch_sth_impact_202311_2_child_v4_1</t>
+    <t>tz_sch_sth_impact_2405_2_child</t>
+  </si>
+  <si>
+    <t>(2024 May) - 2. SCH/STH – Participant</t>
+  </si>
+  <si>
+    <t>tz_st_p_2405</t>
   </si>
 </sst>
 </file>
@@ -835,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -917,7 +917,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1261,11 +1260,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1347,10 +1346,10 @@
       <c r="D2" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>105</v>
       </c>
       <c r="G2" s="30"/>
@@ -1360,7 +1359,7 @@
       <c r="I2" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="34" t="s">
         <v>109</v>
       </c>
       <c r="K2" s="8"/>
@@ -1382,14 +1381,14 @@
         <v>72</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="33"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="36"/>
+      <c r="J3" s="35"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8" t="s">
@@ -1409,14 +1408,14 @@
         <v>73</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="F4" s="33"/>
+      <c r="E4" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="32"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="36"/>
+      <c r="J4" s="35"/>
       <c r="K4" s="7"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8" t="s">
@@ -1436,14 +1435,14 @@
         <v>58</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="33"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="36"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8" t="s">
@@ -1463,14 +1462,14 @@
         <v>59</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="33"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="36"/>
+      <c r="J6" s="35"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8" t="s">
@@ -1492,16 +1491,16 @@
       <c r="D7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="32" t="s">
         <v>113</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="37"/>
+      <c r="J7" s="36"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -1517,12 +1516,12 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="37"/>
+      <c r="J8" s="36"/>
       <c r="K8" s="8"/>
       <c r="L8" s="7" t="s">
         <v>161</v>
@@ -1536,7 +1535,7 @@
         <v>55</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>76</v>
@@ -1565,12 +1564,12 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="36"/>
+      <c r="J10" s="35"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8" t="s">
         <v>63</v>
@@ -1588,12 +1587,12 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="36"/>
+      <c r="J11" s="35"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8" t="s">
         <v>160</v>
@@ -1615,16 +1614,16 @@
       <c r="D12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="48" t="s">
         <v>184</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>185</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="36"/>
+      <c r="J12" s="35"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8" t="s">
@@ -1646,16 +1645,16 @@
       <c r="D13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="49" t="s">
-        <v>185</v>
+      <c r="F13" s="48" t="s">
+        <v>184</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="36"/>
+      <c r="J13" s="35"/>
       <c r="K13" s="8" t="s">
         <v>154</v>
       </c>
@@ -1677,14 +1676,14 @@
         <v>46</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="33"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="18"/>
-      <c r="J14" s="38"/>
+      <c r="J14" s="37"/>
       <c r="K14" s="8" t="s">
         <v>153</v>
       </c>
@@ -1706,19 +1705,19 @@
         <v>45</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="33"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
         <v>123</v>
       </c>
       <c r="I15" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" s="35" t="s">
         <v>165</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>166</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>153</v>
@@ -1730,34 +1729,34 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+    <row r="16" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="C16" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="D16" s="41"/>
+      <c r="E16" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="44" t="s">
+      <c r="F16" s="40"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="41" t="s">
+      <c r="L16" s="42"/>
+      <c r="M16" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
     </row>
     <row r="17" spans="1:15" s="13" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
@@ -1772,16 +1771,16 @@
       <c r="D17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="18"/>
-      <c r="J17" s="38"/>
+      <c r="J17" s="37"/>
       <c r="K17" s="7" t="s">
         <v>153</v>
       </c>
@@ -1793,8 +1792,8 @@
       <c r="O17" s="7"/>
     </row>
     <row r="18" spans="1:15" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
-        <v>186</v>
+      <c r="A18" s="49" t="s">
+        <v>185</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>128</v>
@@ -1803,14 +1802,14 @@
         <v>129</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="33"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="18"/>
-      <c r="J18" s="38"/>
+      <c r="J18" s="37"/>
       <c r="K18" s="7" t="s">
         <v>131</v>
       </c>
@@ -1834,16 +1833,16 @@
       <c r="D19" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="32" t="s">
         <v>136</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="38"/>
+      <c r="J19" s="37"/>
       <c r="K19" s="7" t="s">
         <v>137</v>
       </c>
@@ -1865,14 +1864,14 @@
         <v>48</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="33"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="18"/>
-      <c r="J20" s="38"/>
+      <c r="J20" s="37"/>
       <c r="K20" s="7" t="s">
         <v>139</v>
       </c>
@@ -1884,8 +1883,8 @@
       <c r="O20" s="7"/>
     </row>
     <row r="21" spans="1:15" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
-        <v>187</v>
+      <c r="A21" s="49" t="s">
+        <v>186</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>140</v>
@@ -1894,14 +1893,14 @@
         <v>141</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="33"/>
+      <c r="F21" s="32"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="38"/>
+      <c r="J21" s="37"/>
       <c r="K21" s="7" t="s">
         <v>143</v>
       </c>
@@ -1925,16 +1924,16 @@
       <c r="D22" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="32" t="s">
         <v>136</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="18"/>
-      <c r="J22" s="38"/>
+      <c r="J22" s="37"/>
       <c r="K22" s="7" t="s">
         <v>147</v>
       </c>
@@ -1956,10 +1955,10 @@
         <v>121</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="33"/>
+      <c r="F23" s="32"/>
       <c r="G23" s="8"/>
       <c r="H23" s="20" t="s">
         <v>159</v>
@@ -1967,11 +1966,11 @@
       <c r="I23" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J23" s="36" t="s">
+      <c r="J23" s="35" t="s">
         <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8" t="s">
@@ -1985,22 +1984,22 @@
         <v>148</v>
       </c>
       <c r="B24" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="40" t="s">
-        <v>169</v>
-      </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="F24" s="33"/>
+      <c r="E24" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="32"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="18"/>
-      <c r="J24" s="38"/>
+      <c r="J24" s="37"/>
       <c r="K24" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="8" t="s">
@@ -2014,22 +2013,22 @@
         <v>148</v>
       </c>
       <c r="B25" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="F25" s="33"/>
+      <c r="F25" s="32"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="38"/>
+      <c r="J25" s="37"/>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="8" t="s">
@@ -2049,16 +2048,16 @@
         <v>150</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="F26" s="33"/>
+      <c r="E26" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="32"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="18"/>
-      <c r="J26" s="38"/>
+      <c r="J26" s="37"/>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="8" t="s">
@@ -2078,16 +2077,16 @@
         <v>152</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="F27" s="33"/>
+      <c r="E27" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="32"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="18"/>
-      <c r="J27" s="38"/>
+      <c r="J27" s="37"/>
       <c r="K27" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="8" t="s">
@@ -2107,14 +2106,14 @@
         <v>49</v>
       </c>
       <c r="D28" s="11"/>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="F28" s="34"/>
+      <c r="F28" s="33"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="39"/>
+      <c r="J28" s="38"/>
       <c r="K28" s="22" t="s">
         <v>119</v>
       </c>
@@ -2134,16 +2133,16 @@
         <v>50</v>
       </c>
       <c r="D29" s="11"/>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="F29" s="34"/>
+      <c r="F29" s="33"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="39"/>
+      <c r="J29" s="38"/>
       <c r="K29" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
@@ -2161,14 +2160,14 @@
         <v>51</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="F30" s="34"/>
+      <c r="F30" s="33"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="39"/>
+      <c r="J30" s="38"/>
       <c r="K30" s="7"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
@@ -2203,12 +2202,12 @@
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="39"/>
+      <c r="J32" s="38"/>
       <c r="K32" s="7"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
@@ -2224,12 +2223,12 @@
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="11"/>
-      <c r="J33" s="39"/>
+      <c r="J33" s="38"/>
       <c r="K33" s="7"/>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
@@ -2254,10 +2253,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="31" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="13" customWidth="1"/>
     <col min="3" max="3" width="46.125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="38.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2315,10 +2314,10 @@
       <c r="B5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="45" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2332,7 +2331,7 @@
       <c r="C6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="45" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2343,10 +2342,10 @@
       <c r="B7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="46" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2357,10 +2356,10 @@
       <c r="B8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="46" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2371,10 +2370,10 @@
       <c r="B9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="46" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2385,15 +2384,14 @@
       <c r="B10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="46" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2447,7 +2445,7 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="47" t="s">
         <v>95</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2463,7 +2461,7 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="47" t="s">
         <v>95</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -2479,7 +2477,7 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="47" t="s">
         <v>95</v>
       </c>
       <c r="B17" s="19" t="s">
@@ -2495,7 +2493,6 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2539,7 +2536,7 @@
         <v>99</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>100</v>
@@ -2552,10 +2549,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" t="s">
         <v>177</v>
-      </c>
-      <c r="B22" t="s">
-        <v>178</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -2566,10 +2563,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C23" s="4">
         <v>5</v>
@@ -2581,10 +2578,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C24" s="4">
         <v>6</v>
@@ -2595,1468 +2592,1468 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
+      <c r="B25"/>
+      <c r="C25"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
+      <c r="B26"/>
+      <c r="C26"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
+      <c r="B27"/>
+      <c r="C27"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
+      <c r="B28"/>
+      <c r="C28"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
+      <c r="B29"/>
+      <c r="C29"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
+      <c r="B30"/>
+      <c r="C30"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
+      <c r="B31"/>
+      <c r="C31"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
+      <c r="B32"/>
+      <c r="C32"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
+      <c r="B33"/>
+      <c r="C33"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
+      <c r="B34"/>
+      <c r="C34"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
+      <c r="B35"/>
+      <c r="C35"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
+      <c r="B36"/>
+      <c r="C36"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
+      <c r="B37"/>
+      <c r="C37"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
+      <c r="B38"/>
+      <c r="C38"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
+      <c r="B39"/>
+      <c r="C39"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
+      <c r="B40"/>
+      <c r="C40"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
+      <c r="B41"/>
+      <c r="C41"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
+      <c r="B42"/>
+      <c r="C42"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
+      <c r="B43"/>
+      <c r="C43"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
+      <c r="B44"/>
+      <c r="C44"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
+      <c r="B45"/>
+      <c r="C45"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
+      <c r="B46"/>
+      <c r="C46"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
+      <c r="B47"/>
+      <c r="C47"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
+      <c r="B48"/>
+      <c r="C48"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
+      <c r="B49"/>
+      <c r="C49"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
+      <c r="B50"/>
+      <c r="C50"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
+      <c r="B51"/>
+      <c r="C51"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
+      <c r="B52"/>
+      <c r="C52"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
+      <c r="B53"/>
+      <c r="C53"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
+      <c r="B54"/>
+      <c r="C54"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
+      <c r="B55"/>
+      <c r="C55"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
+      <c r="B56"/>
+      <c r="C56"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
+      <c r="B57"/>
+      <c r="C57"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
+      <c r="B58"/>
+      <c r="C58"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
+      <c r="B59"/>
+      <c r="C59"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
+      <c r="B60"/>
+      <c r="C60"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
+      <c r="B61"/>
+      <c r="C61"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
+      <c r="B62"/>
+      <c r="C62"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
+      <c r="B63"/>
+      <c r="C63"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
+      <c r="B64"/>
+      <c r="C64"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
+      <c r="B65"/>
+      <c r="C65"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
+      <c r="B66"/>
+      <c r="C66"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
+      <c r="B67"/>
+      <c r="C67"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
+      <c r="B68"/>
+      <c r="C68"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
+      <c r="B69"/>
+      <c r="C69"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
+      <c r="B70"/>
+      <c r="C70"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
+      <c r="B71"/>
+      <c r="C71"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
+      <c r="B72"/>
+      <c r="C72"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
+      <c r="B73"/>
+      <c r="C73"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
+      <c r="B74"/>
+      <c r="C74"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
+      <c r="B75"/>
+      <c r="C75"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
+      <c r="B76"/>
+      <c r="C76"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
+      <c r="B77"/>
+      <c r="C77"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
+      <c r="B78"/>
+      <c r="C78"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
+      <c r="B79"/>
+      <c r="C79"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
+      <c r="B80"/>
+      <c r="C80"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
+      <c r="B81"/>
+      <c r="C81"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
+      <c r="B82"/>
+      <c r="C82"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
+      <c r="B83"/>
+      <c r="C83"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
+      <c r="B84"/>
+      <c r="C84"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
+      <c r="B85"/>
+      <c r="C85"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
+      <c r="B86"/>
+      <c r="C86"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
+      <c r="B87"/>
+      <c r="C87"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
+      <c r="B88"/>
+      <c r="C88"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
+      <c r="B90"/>
+      <c r="C90"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
+      <c r="B91"/>
+      <c r="C91"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
+      <c r="B92"/>
+      <c r="C92"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="31"/>
-      <c r="C93" s="31"/>
+      <c r="B93"/>
+      <c r="C93"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="31"/>
-      <c r="C94" s="31"/>
+      <c r="B94"/>
+      <c r="C94"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="31"/>
-      <c r="C95" s="31"/>
+      <c r="B95"/>
+      <c r="C95"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="31"/>
-      <c r="C96" s="31"/>
+      <c r="B96"/>
+      <c r="C96"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="31"/>
-      <c r="C97" s="31"/>
+      <c r="B97"/>
+      <c r="C97"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="31"/>
-      <c r="C98" s="31"/>
+      <c r="B98"/>
+      <c r="C98"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="31"/>
-      <c r="C99" s="31"/>
+      <c r="B99"/>
+      <c r="C99"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="31"/>
-      <c r="C100" s="31"/>
+      <c r="B100"/>
+      <c r="C100"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="31"/>
-      <c r="C101" s="31"/>
+      <c r="B101"/>
+      <c r="C101"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="31"/>
-      <c r="C102" s="31"/>
+      <c r="B102"/>
+      <c r="C102"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="31"/>
-      <c r="C103" s="31"/>
+      <c r="B103"/>
+      <c r="C103"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="31"/>
-      <c r="C104" s="31"/>
+      <c r="B104"/>
+      <c r="C104"/>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
+      <c r="B105"/>
+      <c r="C105"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
+      <c r="B106"/>
+      <c r="C106"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="31"/>
-      <c r="C107" s="31"/>
+      <c r="B107"/>
+      <c r="C107"/>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="31"/>
-      <c r="C108" s="31"/>
+      <c r="B108"/>
+      <c r="C108"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="31"/>
-      <c r="C109" s="31"/>
+      <c r="B109"/>
+      <c r="C109"/>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" s="31"/>
-      <c r="C110" s="31"/>
+      <c r="B110"/>
+      <c r="C110"/>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" s="31"/>
-      <c r="C111" s="31"/>
+      <c r="B111"/>
+      <c r="C111"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112" s="31"/>
-      <c r="C112" s="31"/>
+      <c r="B112"/>
+      <c r="C112"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="31"/>
-      <c r="C113" s="31"/>
+      <c r="B113"/>
+      <c r="C113"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="31"/>
-      <c r="C114" s="31"/>
+      <c r="B114"/>
+      <c r="C114"/>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115" s="31"/>
-      <c r="C115" s="31"/>
+      <c r="B115"/>
+      <c r="C115"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116" s="31"/>
-      <c r="C116" s="31"/>
+      <c r="B116"/>
+      <c r="C116"/>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117" s="31"/>
-      <c r="C117" s="31"/>
+      <c r="B117"/>
+      <c r="C117"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B118" s="31"/>
-      <c r="C118" s="31"/>
+      <c r="B118"/>
+      <c r="C118"/>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119" s="31"/>
-      <c r="C119" s="31"/>
+      <c r="B119"/>
+      <c r="C119"/>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B120" s="31"/>
-      <c r="C120" s="31"/>
+      <c r="B120"/>
+      <c r="C120"/>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B121" s="31"/>
-      <c r="C121" s="31"/>
+      <c r="B121"/>
+      <c r="C121"/>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B122" s="31"/>
-      <c r="C122" s="31"/>
+      <c r="B122"/>
+      <c r="C122"/>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B123" s="31"/>
-      <c r="C123" s="31"/>
+      <c r="B123"/>
+      <c r="C123"/>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B124" s="31"/>
-      <c r="C124" s="31"/>
+      <c r="B124"/>
+      <c r="C124"/>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B125" s="31"/>
-      <c r="C125" s="31"/>
+      <c r="B125"/>
+      <c r="C125"/>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B126" s="31"/>
-      <c r="C126" s="31"/>
+      <c r="B126"/>
+      <c r="C126"/>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B127" s="31"/>
-      <c r="C127" s="31"/>
+      <c r="B127"/>
+      <c r="C127"/>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B128" s="31"/>
-      <c r="C128" s="31"/>
+      <c r="B128"/>
+      <c r="C128"/>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B129" s="31"/>
-      <c r="C129" s="31"/>
+      <c r="B129"/>
+      <c r="C129"/>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B130" s="31"/>
-      <c r="C130" s="31"/>
+      <c r="B130"/>
+      <c r="C130"/>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B131" s="31"/>
-      <c r="C131" s="31"/>
+      <c r="B131"/>
+      <c r="C131"/>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B132" s="31"/>
-      <c r="C132" s="31"/>
+      <c r="B132"/>
+      <c r="C132"/>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B133" s="31"/>
-      <c r="C133" s="31"/>
+      <c r="B133"/>
+      <c r="C133"/>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B134" s="31"/>
-      <c r="C134" s="31"/>
+      <c r="B134"/>
+      <c r="C134"/>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B135" s="31"/>
-      <c r="C135" s="31"/>
+      <c r="B135"/>
+      <c r="C135"/>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B136" s="31"/>
-      <c r="C136" s="31"/>
+      <c r="B136"/>
+      <c r="C136"/>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B137" s="31"/>
-      <c r="C137" s="31"/>
+      <c r="B137"/>
+      <c r="C137"/>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B138" s="31"/>
-      <c r="C138" s="31"/>
+      <c r="B138"/>
+      <c r="C138"/>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B139" s="31"/>
-      <c r="C139" s="31"/>
+      <c r="B139"/>
+      <c r="C139"/>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B140" s="31"/>
-      <c r="C140" s="31"/>
+      <c r="B140"/>
+      <c r="C140"/>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B141" s="31"/>
-      <c r="C141" s="31"/>
+      <c r="B141"/>
+      <c r="C141"/>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B142" s="31"/>
-      <c r="C142" s="31"/>
+      <c r="B142"/>
+      <c r="C142"/>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" s="31"/>
-      <c r="C143" s="31"/>
+      <c r="B143"/>
+      <c r="C143"/>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B144" s="31"/>
-      <c r="C144" s="31"/>
+      <c r="B144"/>
+      <c r="C144"/>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B145" s="31"/>
-      <c r="C145" s="31"/>
+      <c r="B145"/>
+      <c r="C145"/>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B146" s="31"/>
-      <c r="C146" s="31"/>
+      <c r="B146"/>
+      <c r="C146"/>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B147" s="31"/>
-      <c r="C147" s="31"/>
+      <c r="B147"/>
+      <c r="C147"/>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B148" s="31"/>
-      <c r="C148" s="31"/>
+      <c r="B148"/>
+      <c r="C148"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B149" s="31"/>
-      <c r="C149" s="31"/>
+      <c r="B149"/>
+      <c r="C149"/>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B150" s="31"/>
-      <c r="C150" s="31"/>
+      <c r="B150"/>
+      <c r="C150"/>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B151" s="31"/>
-      <c r="C151" s="31"/>
+      <c r="B151"/>
+      <c r="C151"/>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B152" s="31"/>
-      <c r="C152" s="31"/>
+      <c r="B152"/>
+      <c r="C152"/>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B153" s="31"/>
-      <c r="C153" s="31"/>
+      <c r="B153"/>
+      <c r="C153"/>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B154" s="31"/>
-      <c r="C154" s="31"/>
+      <c r="B154"/>
+      <c r="C154"/>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B155" s="31"/>
-      <c r="C155" s="31"/>
+      <c r="B155"/>
+      <c r="C155"/>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B156" s="31"/>
-      <c r="C156" s="31"/>
+      <c r="B156"/>
+      <c r="C156"/>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B157" s="31"/>
-      <c r="C157" s="31"/>
+      <c r="B157"/>
+      <c r="C157"/>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B158" s="31"/>
-      <c r="C158" s="31"/>
+      <c r="B158"/>
+      <c r="C158"/>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B159" s="31"/>
-      <c r="C159" s="31"/>
+      <c r="B159"/>
+      <c r="C159"/>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B160" s="31"/>
-      <c r="C160" s="31"/>
+      <c r="B160"/>
+      <c r="C160"/>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B161" s="31"/>
-      <c r="C161" s="31"/>
+      <c r="B161"/>
+      <c r="C161"/>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B162" s="31"/>
-      <c r="C162" s="31"/>
+      <c r="B162"/>
+      <c r="C162"/>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B163" s="31"/>
-      <c r="C163" s="31"/>
+      <c r="B163"/>
+      <c r="C163"/>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B164" s="31"/>
-      <c r="C164" s="31"/>
+      <c r="B164"/>
+      <c r="C164"/>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B165" s="31"/>
-      <c r="C165" s="31"/>
+      <c r="B165"/>
+      <c r="C165"/>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B166" s="31"/>
-      <c r="C166" s="31"/>
+      <c r="B166"/>
+      <c r="C166"/>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B167" s="31"/>
-      <c r="C167" s="31"/>
+      <c r="B167"/>
+      <c r="C167"/>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B168" s="31"/>
-      <c r="C168" s="31"/>
+      <c r="B168"/>
+      <c r="C168"/>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B169" s="31"/>
-      <c r="C169" s="31"/>
+      <c r="B169"/>
+      <c r="C169"/>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B170" s="31"/>
-      <c r="C170" s="31"/>
+      <c r="B170"/>
+      <c r="C170"/>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B171" s="31"/>
-      <c r="C171" s="31"/>
+      <c r="B171"/>
+      <c r="C171"/>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B172" s="31"/>
-      <c r="C172" s="31"/>
+      <c r="B172"/>
+      <c r="C172"/>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B173" s="31"/>
-      <c r="C173" s="31"/>
+      <c r="B173"/>
+      <c r="C173"/>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B174" s="31"/>
-      <c r="C174" s="31"/>
+      <c r="B174"/>
+      <c r="C174"/>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B175" s="31"/>
-      <c r="C175" s="31"/>
+      <c r="B175"/>
+      <c r="C175"/>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B176" s="31"/>
-      <c r="C176" s="31"/>
+      <c r="B176"/>
+      <c r="C176"/>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B177" s="31"/>
-      <c r="C177" s="31"/>
+      <c r="B177"/>
+      <c r="C177"/>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B178" s="31"/>
-      <c r="C178" s="31"/>
+      <c r="B178"/>
+      <c r="C178"/>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B179" s="31"/>
-      <c r="C179" s="31"/>
+      <c r="B179"/>
+      <c r="C179"/>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B180" s="31"/>
-      <c r="C180" s="31"/>
+      <c r="B180"/>
+      <c r="C180"/>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B181" s="31"/>
-      <c r="C181" s="31"/>
+      <c r="B181"/>
+      <c r="C181"/>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B182" s="31"/>
-      <c r="C182" s="31"/>
+      <c r="B182"/>
+      <c r="C182"/>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B183" s="31"/>
-      <c r="C183" s="31"/>
+      <c r="B183"/>
+      <c r="C183"/>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B184" s="31"/>
-      <c r="C184" s="31"/>
+      <c r="B184"/>
+      <c r="C184"/>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B185" s="31"/>
-      <c r="C185" s="31"/>
+      <c r="B185"/>
+      <c r="C185"/>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B186" s="31"/>
-      <c r="C186" s="31"/>
+      <c r="B186"/>
+      <c r="C186"/>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B187" s="31"/>
-      <c r="C187" s="31"/>
+      <c r="B187"/>
+      <c r="C187"/>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B188" s="31"/>
-      <c r="C188" s="31"/>
+      <c r="B188"/>
+      <c r="C188"/>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B189" s="31"/>
-      <c r="C189" s="31"/>
+      <c r="B189"/>
+      <c r="C189"/>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B190" s="31"/>
-      <c r="C190" s="31"/>
+      <c r="B190"/>
+      <c r="C190"/>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B191" s="31"/>
-      <c r="C191" s="31"/>
+      <c r="B191"/>
+      <c r="C191"/>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B192" s="31"/>
-      <c r="C192" s="31"/>
+      <c r="B192"/>
+      <c r="C192"/>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B193" s="31"/>
-      <c r="C193" s="31"/>
+      <c r="B193"/>
+      <c r="C193"/>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B194" s="31"/>
-      <c r="C194" s="31"/>
+      <c r="B194"/>
+      <c r="C194"/>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B195" s="31"/>
-      <c r="C195" s="31"/>
+      <c r="B195"/>
+      <c r="C195"/>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B196" s="31"/>
-      <c r="C196" s="31"/>
+      <c r="B196"/>
+      <c r="C196"/>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B197" s="31"/>
-      <c r="C197" s="31"/>
+      <c r="B197"/>
+      <c r="C197"/>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B198" s="31"/>
-      <c r="C198" s="31"/>
+      <c r="B198"/>
+      <c r="C198"/>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B199" s="31"/>
-      <c r="C199" s="31"/>
+      <c r="B199"/>
+      <c r="C199"/>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B200" s="31"/>
-      <c r="C200" s="31"/>
+      <c r="B200"/>
+      <c r="C200"/>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B201" s="31"/>
-      <c r="C201" s="31"/>
+      <c r="B201"/>
+      <c r="C201"/>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B202" s="31"/>
-      <c r="C202" s="31"/>
+      <c r="B202"/>
+      <c r="C202"/>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B203" s="31"/>
-      <c r="C203" s="31"/>
+      <c r="B203"/>
+      <c r="C203"/>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B204" s="31"/>
-      <c r="C204" s="31"/>
+      <c r="B204"/>
+      <c r="C204"/>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B205" s="31"/>
-      <c r="C205" s="31"/>
+      <c r="B205"/>
+      <c r="C205"/>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B206" s="31"/>
-      <c r="C206" s="31"/>
+      <c r="B206"/>
+      <c r="C206"/>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B207" s="31"/>
-      <c r="C207" s="31"/>
+      <c r="B207"/>
+      <c r="C207"/>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B208" s="31"/>
-      <c r="C208" s="31"/>
+      <c r="B208"/>
+      <c r="C208"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B209" s="31"/>
-      <c r="C209" s="31"/>
+      <c r="B209"/>
+      <c r="C209"/>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B210" s="31"/>
-      <c r="C210" s="31"/>
+      <c r="B210"/>
+      <c r="C210"/>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B211" s="31"/>
-      <c r="C211" s="31"/>
+      <c r="B211"/>
+      <c r="C211"/>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B212" s="31"/>
-      <c r="C212" s="31"/>
+      <c r="B212"/>
+      <c r="C212"/>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B213" s="31"/>
-      <c r="C213" s="31"/>
+      <c r="B213"/>
+      <c r="C213"/>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B214" s="31"/>
-      <c r="C214" s="31"/>
+      <c r="B214"/>
+      <c r="C214"/>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B215" s="31"/>
-      <c r="C215" s="31"/>
+      <c r="B215"/>
+      <c r="C215"/>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B216" s="31"/>
-      <c r="C216" s="31"/>
+      <c r="B216"/>
+      <c r="C216"/>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B217" s="31"/>
-      <c r="C217" s="31"/>
+      <c r="B217"/>
+      <c r="C217"/>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B218" s="31"/>
-      <c r="C218" s="31"/>
+      <c r="B218"/>
+      <c r="C218"/>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B219" s="31"/>
-      <c r="C219" s="31"/>
+      <c r="B219"/>
+      <c r="C219"/>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B220" s="31"/>
-      <c r="C220" s="31"/>
+      <c r="B220"/>
+      <c r="C220"/>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B221" s="31"/>
-      <c r="C221" s="31"/>
+      <c r="B221"/>
+      <c r="C221"/>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B222" s="31"/>
-      <c r="C222" s="31"/>
+      <c r="B222"/>
+      <c r="C222"/>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B223" s="31"/>
-      <c r="C223" s="31"/>
+      <c r="B223"/>
+      <c r="C223"/>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B224" s="31"/>
-      <c r="C224" s="31"/>
+      <c r="B224"/>
+      <c r="C224"/>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B225" s="31"/>
-      <c r="C225" s="31"/>
+      <c r="B225"/>
+      <c r="C225"/>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B226" s="31"/>
-      <c r="C226" s="31"/>
+      <c r="B226"/>
+      <c r="C226"/>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B227" s="31"/>
-      <c r="C227" s="31"/>
+      <c r="B227"/>
+      <c r="C227"/>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B228" s="31"/>
-      <c r="C228" s="31"/>
+      <c r="B228"/>
+      <c r="C228"/>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B229" s="31"/>
-      <c r="C229" s="31"/>
+      <c r="B229"/>
+      <c r="C229"/>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B230" s="31"/>
-      <c r="C230" s="31"/>
+      <c r="B230"/>
+      <c r="C230"/>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B231" s="31"/>
-      <c r="C231" s="31"/>
+      <c r="B231"/>
+      <c r="C231"/>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B232" s="31"/>
-      <c r="C232" s="31"/>
+      <c r="B232"/>
+      <c r="C232"/>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B233" s="31"/>
-      <c r="C233" s="31"/>
+      <c r="B233"/>
+      <c r="C233"/>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B234" s="31"/>
-      <c r="C234" s="31"/>
+      <c r="B234"/>
+      <c r="C234"/>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B235" s="31"/>
-      <c r="C235" s="31"/>
+      <c r="B235"/>
+      <c r="C235"/>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B236" s="31"/>
-      <c r="C236" s="31"/>
+      <c r="B236"/>
+      <c r="C236"/>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B237" s="31"/>
-      <c r="C237" s="31"/>
+      <c r="B237"/>
+      <c r="C237"/>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B238" s="31"/>
-      <c r="C238" s="31"/>
+      <c r="B238"/>
+      <c r="C238"/>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B239" s="31"/>
-      <c r="C239" s="31"/>
+      <c r="B239"/>
+      <c r="C239"/>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B240" s="31"/>
-      <c r="C240" s="31"/>
+      <c r="B240"/>
+      <c r="C240"/>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B241" s="31"/>
-      <c r="C241" s="31"/>
+      <c r="B241"/>
+      <c r="C241"/>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B242" s="31"/>
-      <c r="C242" s="31"/>
+      <c r="B242"/>
+      <c r="C242"/>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B243" s="31"/>
-      <c r="C243" s="31"/>
+      <c r="B243"/>
+      <c r="C243"/>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B244" s="31"/>
-      <c r="C244" s="31"/>
+      <c r="B244"/>
+      <c r="C244"/>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B245" s="31"/>
-      <c r="C245" s="31"/>
+      <c r="B245"/>
+      <c r="C245"/>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B246" s="31"/>
-      <c r="C246" s="31"/>
+      <c r="B246"/>
+      <c r="C246"/>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B247" s="31"/>
-      <c r="C247" s="31"/>
+      <c r="B247"/>
+      <c r="C247"/>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B248" s="31"/>
-      <c r="C248" s="31"/>
+      <c r="B248"/>
+      <c r="C248"/>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B249" s="31"/>
-      <c r="C249" s="31"/>
+      <c r="B249"/>
+      <c r="C249"/>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B250" s="31"/>
-      <c r="C250" s="31"/>
+      <c r="B250"/>
+      <c r="C250"/>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B251" s="31"/>
-      <c r="C251" s="31"/>
+      <c r="B251"/>
+      <c r="C251"/>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B252" s="31"/>
-      <c r="C252" s="31"/>
+      <c r="B252"/>
+      <c r="C252"/>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B253" s="31"/>
-      <c r="C253" s="31"/>
+      <c r="B253"/>
+      <c r="C253"/>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B254" s="31"/>
-      <c r="C254" s="31"/>
+      <c r="B254"/>
+      <c r="C254"/>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B255" s="31"/>
-      <c r="C255" s="31"/>
+      <c r="B255"/>
+      <c r="C255"/>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B256" s="31"/>
-      <c r="C256" s="31"/>
+      <c r="B256"/>
+      <c r="C256"/>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B257" s="31"/>
-      <c r="C257" s="31"/>
+      <c r="B257"/>
+      <c r="C257"/>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B258" s="31"/>
-      <c r="C258" s="31"/>
+      <c r="B258"/>
+      <c r="C258"/>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B259" s="31"/>
-      <c r="C259" s="31"/>
+      <c r="B259"/>
+      <c r="C259"/>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B260" s="31"/>
-      <c r="C260" s="31"/>
+      <c r="B260"/>
+      <c r="C260"/>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B261" s="31"/>
-      <c r="C261" s="31"/>
+      <c r="B261"/>
+      <c r="C261"/>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B262" s="31"/>
-      <c r="C262" s="31"/>
+      <c r="B262"/>
+      <c r="C262"/>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B263" s="31"/>
-      <c r="C263" s="31"/>
+      <c r="B263"/>
+      <c r="C263"/>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B264" s="31"/>
-      <c r="C264" s="31"/>
+      <c r="B264"/>
+      <c r="C264"/>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B265" s="31"/>
-      <c r="C265" s="31"/>
+      <c r="B265"/>
+      <c r="C265"/>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B266" s="31"/>
-      <c r="C266" s="31"/>
+      <c r="B266"/>
+      <c r="C266"/>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B267" s="31"/>
-      <c r="C267" s="31"/>
+      <c r="B267"/>
+      <c r="C267"/>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B268" s="31"/>
-      <c r="C268" s="31"/>
+      <c r="B268"/>
+      <c r="C268"/>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B269" s="31"/>
-      <c r="C269" s="31"/>
+      <c r="B269"/>
+      <c r="C269"/>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B270" s="31"/>
-      <c r="C270" s="31"/>
+      <c r="B270"/>
+      <c r="C270"/>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B271" s="31"/>
-      <c r="C271" s="31"/>
+      <c r="B271"/>
+      <c r="C271"/>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B272" s="31"/>
-      <c r="C272" s="31"/>
+      <c r="B272"/>
+      <c r="C272"/>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B273" s="31"/>
-      <c r="C273" s="31"/>
+      <c r="B273"/>
+      <c r="C273"/>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B274" s="31"/>
-      <c r="C274" s="31"/>
+      <c r="B274"/>
+      <c r="C274"/>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B275" s="31"/>
-      <c r="C275" s="31"/>
+      <c r="B275"/>
+      <c r="C275"/>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B276" s="31"/>
-      <c r="C276" s="31"/>
+      <c r="B276"/>
+      <c r="C276"/>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B277" s="31"/>
-      <c r="C277" s="31"/>
+      <c r="B277"/>
+      <c r="C277"/>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B278" s="31"/>
-      <c r="C278" s="31"/>
+      <c r="B278"/>
+      <c r="C278"/>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B279" s="31"/>
-      <c r="C279" s="31"/>
+      <c r="B279"/>
+      <c r="C279"/>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B280" s="31"/>
-      <c r="C280" s="31"/>
+      <c r="B280"/>
+      <c r="C280"/>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B281" s="31"/>
-      <c r="C281" s="31"/>
+      <c r="B281"/>
+      <c r="C281"/>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B282" s="31"/>
-      <c r="C282" s="31"/>
+      <c r="B282"/>
+      <c r="C282"/>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B283" s="31"/>
-      <c r="C283" s="31"/>
+      <c r="B283"/>
+      <c r="C283"/>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B284" s="31"/>
-      <c r="C284" s="31"/>
+      <c r="B284"/>
+      <c r="C284"/>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B285" s="31"/>
-      <c r="C285" s="31"/>
+      <c r="B285"/>
+      <c r="C285"/>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B286" s="31"/>
-      <c r="C286" s="31"/>
+      <c r="B286"/>
+      <c r="C286"/>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B287" s="31"/>
-      <c r="C287" s="31"/>
+      <c r="B287"/>
+      <c r="C287"/>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B288" s="31"/>
-      <c r="C288" s="31"/>
+      <c r="B288"/>
+      <c r="C288"/>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B289" s="31"/>
-      <c r="C289" s="31"/>
+      <c r="B289"/>
+      <c r="C289"/>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B290" s="31"/>
-      <c r="C290" s="31"/>
+      <c r="B290"/>
+      <c r="C290"/>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B291" s="31"/>
-      <c r="C291" s="31"/>
+      <c r="B291"/>
+      <c r="C291"/>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B292" s="31"/>
-      <c r="C292" s="31"/>
+      <c r="B292"/>
+      <c r="C292"/>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B293" s="31"/>
-      <c r="C293" s="31"/>
+      <c r="B293"/>
+      <c r="C293"/>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B294" s="31"/>
-      <c r="C294" s="31"/>
+      <c r="B294"/>
+      <c r="C294"/>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B295" s="31"/>
-      <c r="C295" s="31"/>
+      <c r="B295"/>
+      <c r="C295"/>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B296" s="31"/>
-      <c r="C296" s="31"/>
+      <c r="B296"/>
+      <c r="C296"/>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B297" s="31"/>
-      <c r="C297" s="31"/>
+      <c r="B297"/>
+      <c r="C297"/>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B298" s="31"/>
-      <c r="C298" s="31"/>
+      <c r="B298"/>
+      <c r="C298"/>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B299" s="31"/>
-      <c r="C299" s="31"/>
+      <c r="B299"/>
+      <c r="C299"/>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B300" s="31"/>
-      <c r="C300" s="31"/>
+      <c r="B300"/>
+      <c r="C300"/>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B301" s="31"/>
-      <c r="C301" s="31"/>
+      <c r="B301"/>
+      <c r="C301"/>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B302" s="31"/>
-      <c r="C302" s="31"/>
+      <c r="B302"/>
+      <c r="C302"/>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B303" s="31"/>
-      <c r="C303" s="31"/>
+      <c r="B303"/>
+      <c r="C303"/>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B304" s="31"/>
-      <c r="C304" s="31"/>
+      <c r="B304"/>
+      <c r="C304"/>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B305" s="31"/>
-      <c r="C305" s="31"/>
+      <c r="B305"/>
+      <c r="C305"/>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B306" s="31"/>
-      <c r="C306" s="31"/>
+      <c r="B306"/>
+      <c r="C306"/>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B307" s="31"/>
-      <c r="C307" s="31"/>
+      <c r="B307"/>
+      <c r="C307"/>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B308" s="31"/>
-      <c r="C308" s="31"/>
+      <c r="B308"/>
+      <c r="C308"/>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B309" s="31"/>
-      <c r="C309" s="31"/>
+      <c r="B309"/>
+      <c r="C309"/>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B310" s="31"/>
-      <c r="C310" s="31"/>
+      <c r="B310"/>
+      <c r="C310"/>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B311" s="31"/>
-      <c r="C311" s="31"/>
+      <c r="B311"/>
+      <c r="C311"/>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B312" s="31"/>
-      <c r="C312" s="31"/>
+      <c r="B312"/>
+      <c r="C312"/>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B313" s="31"/>
-      <c r="C313" s="31"/>
+      <c r="B313"/>
+      <c r="C313"/>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B314" s="31"/>
-      <c r="C314" s="31"/>
+      <c r="B314"/>
+      <c r="C314"/>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B315" s="31"/>
-      <c r="C315" s="31"/>
+      <c r="B315"/>
+      <c r="C315"/>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B316" s="31"/>
-      <c r="C316" s="31"/>
+      <c r="B316"/>
+      <c r="C316"/>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B317" s="31"/>
-      <c r="C317" s="31"/>
+      <c r="B317"/>
+      <c r="C317"/>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B318" s="31"/>
-      <c r="C318" s="31"/>
+      <c r="B318"/>
+      <c r="C318"/>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B319" s="31"/>
-      <c r="C319" s="31"/>
+      <c r="B319"/>
+      <c r="C319"/>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B320" s="31"/>
-      <c r="C320" s="31"/>
+      <c r="B320"/>
+      <c r="C320"/>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B321" s="31"/>
-      <c r="C321" s="31"/>
+      <c r="B321"/>
+      <c r="C321"/>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B322" s="31"/>
-      <c r="C322" s="31"/>
+      <c r="B322"/>
+      <c r="C322"/>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B323" s="31"/>
-      <c r="C323" s="31"/>
+      <c r="B323"/>
+      <c r="C323"/>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B324" s="31"/>
-      <c r="C324" s="31"/>
+      <c r="B324"/>
+      <c r="C324"/>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B325" s="31"/>
-      <c r="C325" s="31"/>
+      <c r="B325"/>
+      <c r="C325"/>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B326" s="31"/>
-      <c r="C326" s="31"/>
+      <c r="B326"/>
+      <c r="C326"/>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B327" s="31"/>
-      <c r="C327" s="31"/>
+      <c r="B327"/>
+      <c r="C327"/>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B328" s="31"/>
-      <c r="C328" s="31"/>
+      <c r="B328"/>
+      <c r="C328"/>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B329" s="31"/>
-      <c r="C329" s="31"/>
+      <c r="B329"/>
+      <c r="C329"/>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B330" s="31"/>
-      <c r="C330" s="31"/>
+      <c r="B330"/>
+      <c r="C330"/>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B331" s="31"/>
-      <c r="C331" s="31"/>
+      <c r="B331"/>
+      <c r="C331"/>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B332" s="31"/>
-      <c r="C332" s="31"/>
+      <c r="B332"/>
+      <c r="C332"/>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B333" s="31"/>
-      <c r="C333" s="31"/>
+      <c r="B333"/>
+      <c r="C333"/>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B334" s="31"/>
-      <c r="C334" s="31"/>
+      <c r="B334"/>
+      <c r="C334"/>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B335" s="31"/>
-      <c r="C335" s="31"/>
+      <c r="B335"/>
+      <c r="C335"/>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B336" s="31"/>
-      <c r="C336" s="31"/>
+      <c r="B336"/>
+      <c r="C336"/>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B337" s="31"/>
-      <c r="C337" s="31"/>
+      <c r="B337"/>
+      <c r="C337"/>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B338" s="31"/>
-      <c r="C338" s="31"/>
+      <c r="B338"/>
+      <c r="C338"/>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B339" s="31"/>
-      <c r="C339" s="31"/>
+      <c r="B339"/>
+      <c r="C339"/>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B340" s="31"/>
-      <c r="C340" s="31"/>
+      <c r="B340"/>
+      <c r="C340"/>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B341" s="31"/>
-      <c r="C341" s="31"/>
+      <c r="B341"/>
+      <c r="C341"/>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B342" s="31"/>
-      <c r="C342" s="31"/>
+      <c r="B342"/>
+      <c r="C342"/>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B343" s="31"/>
-      <c r="C343" s="31"/>
+      <c r="B343"/>
+      <c r="C343"/>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B344" s="31"/>
-      <c r="C344" s="31"/>
+      <c r="B344"/>
+      <c r="C344"/>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B345" s="31"/>
-      <c r="C345" s="31"/>
+      <c r="B345"/>
+      <c r="C345"/>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B346" s="31"/>
-      <c r="C346" s="31"/>
+      <c r="B346"/>
+      <c r="C346"/>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B347" s="31"/>
-      <c r="C347" s="31"/>
+      <c r="B347"/>
+      <c r="C347"/>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B348" s="31"/>
-      <c r="C348" s="31"/>
+      <c r="B348"/>
+      <c r="C348"/>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B349" s="31"/>
-      <c r="C349" s="31"/>
+      <c r="B349"/>
+      <c r="C349"/>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B350" s="31"/>
-      <c r="C350" s="31"/>
+      <c r="B350"/>
+      <c r="C350"/>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B351" s="31"/>
-      <c r="C351" s="31"/>
+      <c r="B351"/>
+      <c r="C351"/>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B352" s="31"/>
-      <c r="C352" s="31"/>
+      <c r="B352"/>
+      <c r="C352"/>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B353" s="31"/>
-      <c r="C353" s="31"/>
+      <c r="B353"/>
+      <c r="C353"/>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B354" s="31"/>
-      <c r="C354" s="31"/>
+      <c r="B354"/>
+      <c r="C354"/>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B355" s="31"/>
-      <c r="C355" s="31"/>
+      <c r="B355"/>
+      <c r="C355"/>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B356" s="31"/>
-      <c r="C356" s="31"/>
+      <c r="B356"/>
+      <c r="C356"/>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B357" s="31"/>
-      <c r="C357" s="31"/>
+      <c r="B357"/>
+      <c r="C357"/>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B358" s="31"/>
-      <c r="C358" s="31"/>
+      <c r="B358"/>
+      <c r="C358"/>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B359" s="31"/>
-      <c r="C359" s="31"/>
+      <c r="B359"/>
+      <c r="C359"/>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B360" s="31"/>
-      <c r="C360" s="31"/>
+      <c r="B360"/>
+      <c r="C360"/>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B361" s="31"/>
-      <c r="C361" s="31"/>
+      <c r="B361"/>
+      <c r="C361"/>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B362" s="31"/>
-      <c r="C362" s="31"/>
+      <c r="B362"/>
+      <c r="C362"/>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B363" s="31"/>
-      <c r="C363" s="31"/>
+      <c r="B363"/>
+      <c r="C363"/>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B364" s="31"/>
-      <c r="C364" s="31"/>
+      <c r="B364"/>
+      <c r="C364"/>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B365" s="31"/>
-      <c r="C365" s="31"/>
+      <c r="B365"/>
+      <c r="C365"/>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B366" s="31"/>
-      <c r="C366" s="31"/>
+      <c r="B366"/>
+      <c r="C366"/>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B367" s="31"/>
-      <c r="C367" s="31"/>
+      <c r="B367"/>
+      <c r="C367"/>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B368" s="31"/>
-      <c r="C368" s="31"/>
+      <c r="B368"/>
+      <c r="C368"/>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B369" s="31"/>
-      <c r="C369" s="31"/>
+      <c r="B369"/>
+      <c r="C369"/>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B370" s="31"/>
-      <c r="C370" s="31"/>
+      <c r="B370"/>
+      <c r="C370"/>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B371" s="31"/>
-      <c r="C371" s="31"/>
+      <c r="B371"/>
+      <c r="C371"/>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B372" s="31"/>
-      <c r="C372" s="31"/>
+      <c r="B372"/>
+      <c r="C372"/>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B373" s="31"/>
-      <c r="C373" s="31"/>
+      <c r="B373"/>
+      <c r="C373"/>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B374" s="31"/>
-      <c r="C374" s="31"/>
+      <c r="B374"/>
+      <c r="C374"/>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B375" s="31"/>
-      <c r="C375" s="31"/>
+      <c r="B375"/>
+      <c r="C375"/>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B376" s="31"/>
-      <c r="C376" s="31"/>
+      <c r="B376"/>
+      <c r="C376"/>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B377" s="31"/>
-      <c r="C377" s="31"/>
+      <c r="B377"/>
+      <c r="C377"/>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B378" s="31"/>
-      <c r="C378" s="31"/>
+      <c r="B378"/>
+      <c r="C378"/>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B379" s="31"/>
-      <c r="C379" s="31"/>
+      <c r="B379"/>
+      <c r="C379"/>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B380" s="31"/>
-      <c r="C380" s="31"/>
+      <c r="B380"/>
+      <c r="C380"/>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B381" s="31"/>
-      <c r="C381" s="31"/>
+      <c r="B381"/>
+      <c r="C381"/>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B382" s="31"/>
-      <c r="C382" s="31"/>
+      <c r="B382"/>
+      <c r="C382"/>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B383" s="31"/>
-      <c r="C383" s="31"/>
+      <c r="B383"/>
+      <c r="C383"/>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B384" s="31"/>
-      <c r="C384" s="31"/>
+      <c r="B384"/>
+      <c r="C384"/>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B385" s="31"/>
-      <c r="C385" s="31"/>
+      <c r="B385"/>
+      <c r="C385"/>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B386" s="31"/>
-      <c r="C386" s="31"/>
+      <c r="B386"/>
+      <c r="C386"/>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B387" s="31"/>
-      <c r="C387" s="31"/>
+      <c r="B387"/>
+      <c r="C387"/>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B388" s="31"/>
-      <c r="C388" s="31"/>
+      <c r="B388"/>
+      <c r="C388"/>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B389" s="31"/>
-      <c r="C389" s="31"/>
+      <c r="B389"/>
+      <c r="C389"/>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B390" s="31"/>
-      <c r="C390" s="31"/>
+      <c r="B390"/>
+      <c r="C390"/>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B391" s="31"/>
-      <c r="C391" s="31"/>
+      <c r="B391"/>
+      <c r="C391"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4068,8 +4065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4094,7 +4091,7 @@
         <v>190</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
         <v>77</v>
